--- a/웹크롤링(날씨, 뉴스)/today_data/오늘날씨.xlsx
+++ b/웹크롤링(날씨, 뉴스)/today_data/오늘날씨.xlsx
@@ -473,17 +473,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025년 07월 16일</t>
+          <t>2025년 07월 17일</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>현재 온도22.8°</t>
+          <t>현재 온도22.2°</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>체감 25.8°</t>
+          <t>25.3°</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>체감 25.8°</t>
+          <t>10.9mm</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">

--- a/웹크롤링(날씨, 뉴스)/today_data/오늘날씨.xlsx
+++ b/웹크롤링(날씨, 뉴스)/today_data/오늘날씨.xlsx
@@ -473,27 +473,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025년 07월 17일</t>
+          <t>2025년 07월 18일</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>현재 온도22.2°</t>
+          <t>현재 온도26.0°</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25.3°</t>
+          <t>28.5°</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>비</t>
+          <t>흐림</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.9mm</t>
+          <t>87%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
